--- a/Data_4x4.xlsx
+++ b/Data_4x4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Data Set for 4x4 Matrix with lowest eigenvalue -1</t>
   </si>
@@ -28,10 +28,84 @@
     <t xml:space="preserve">Hamilton</t>
   </si>
   <si>
+    <t xml:space="preserve">e^iH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial state </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EiganState</t>
+  </si>
+  <si>
     <t xml:space="preserve">[[-1.,  0.,  0.,  0.],
        [ 0.,  2.,  0.,  0.],
        [ 0.,  0.,  3.,  0.],
        [ 0.,  0.,  0.,  4.]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[ 0.54030231-0.84147098j,  0.        +0.j        ,
+         0.        +0.j        ,  0.        +0.j        ],
+       [ 0.        +0.j        , -0.41614684+0.90929743j,
+         0.        +0.j        ,  0.        +0.j        ],
+       [ 0.        +0.j        ,  0.        +0.j        ,
+        -0.9899925 +0.14112001j,  0.        +0.j        ],
+       [-0.        +0.j        , -0.        +0.j        ,
+        -0.        +0.j        , -0.65364362-0.7568025j ]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.27015115-0.42073549j, -0.20807342+0.45464871j,
+       -0.49499625+0.07056j   , -0.32682181-0.37840125j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.+0.j, 0.+0.j, 0.+0.j, 0.+0.j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[-1. ,  0. ,  0. ,  0. ],
+       [ 0. ,  1.5,  0.5, -0.5],
+       [ 0. ,  0.5 ,  2. ,  0.5 ],
+       [ 0. , -0.5,  0.5,  1.5]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[ 0.54030231-0.84147098j,  0.        +0.j        ,
+         0.        +0.j        ,  0.        +0.j        ],
+       [ 0.        +0.j        ,  0.03419077+0.76221174j,
+        -0.43870062+0.03111039j,  0.45033761-0.14708568j],
+       [ 0.        +0.j        , -0.43870062+0.03111039j,
+        -0.39287286+0.67734683j, -0.43870062+0.03111039j],
+       [ 0.        +0.j        ,  0.45033761-0.14708568j,
+        -0.43870062+0.03111039j,  0.03419077+0.76221174j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.27015115-0.42073549j,  0.02291388+0.32311822j,
+       -0.63513705+0.3697838j ,  0.02291388+0.32311822j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98289396+0.00252947j,  0.12510176+0.00389332j,
+       -0.12110208+0.01924419j, -0.04376542+0.03599996j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[3.87,  3.,  6.,  2.],
+       [ 3.,  10.87,  -4.,  3.],
+       [ 6.,  -4.,  4.87,  -2.],
+       [ 2.,3.,  -2.,  10.87]])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[-0.70997584-0.15204457j,  0.09762261+0.06998562j,
+         0.18067304-0.5577882j , -0.08483789-0.32775097j],
+       [ 0.09762261+0.06998562j, -0.61511105+0.42475924j,
+         0.04996227+0.15325172j, -0.43910781-0.45606122j],
+       [ 0.18067304-0.5577882j ,  0.04996227+0.15325172j,
+        -0.75057137-0.20909466j,  0.0267724 -0.14984169j],
+       [-0.08483789-0.32775097j, -0.43910781-0.45606122j,
+         0.0267724 -0.14984169j, -0.46280307+0.49721056j]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.25825904-0.48379906j, -0.45331699+0.09596768j,
+       -0.24658183-0.38173642j, -0.47998819-0.21822166j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.6625662 +0.00137072j, -0.68661827-0.02520104j,
+       -0.28803126+0.05485629j, -0.02220613-0.04959926j]</t>
   </si>
 </sst>
 </file>
@@ -107,7 +181,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -122,6 +196,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -141,15 +219,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BG229"/>
+  <dimension ref="A1:BG230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="63.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="53.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -340,9 +421,7 @@
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -403,13 +482,21 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -522,12 +609,10 @@
       <c r="BF6" s="1"/>
       <c r="BG6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -585,16 +670,24 @@
       <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -775,7 +868,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -829,16 +922,24 @@
       <c r="BF11" s="1"/>
       <c r="BG11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1012,16 +1113,24 @@
       <c r="BF14" s="1"/>
       <c r="BG14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -14127,6 +14236,67 @@
       <c r="BF229" s="1"/>
       <c r="BG229" s="1"/>
     </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
+      <c r="U230" s="1"/>
+      <c r="V230" s="1"/>
+      <c r="W230" s="1"/>
+      <c r="X230" s="1"/>
+      <c r="Y230" s="1"/>
+      <c r="Z230" s="1"/>
+      <c r="AA230" s="1"/>
+      <c r="AB230" s="1"/>
+      <c r="AC230" s="1"/>
+      <c r="AD230" s="1"/>
+      <c r="AE230" s="1"/>
+      <c r="AF230" s="1"/>
+      <c r="AG230" s="1"/>
+      <c r="AH230" s="1"/>
+      <c r="AI230" s="1"/>
+      <c r="AJ230" s="1"/>
+      <c r="AK230" s="1"/>
+      <c r="AL230" s="1"/>
+      <c r="AM230" s="1"/>
+      <c r="AN230" s="1"/>
+      <c r="AO230" s="1"/>
+      <c r="AP230" s="1"/>
+      <c r="AQ230" s="1"/>
+      <c r="AR230" s="1"/>
+      <c r="AS230" s="1"/>
+      <c r="AT230" s="1"/>
+      <c r="AU230" s="1"/>
+      <c r="AV230" s="1"/>
+      <c r="AW230" s="1"/>
+      <c r="AX230" s="1"/>
+      <c r="AY230" s="1"/>
+      <c r="AZ230" s="1"/>
+      <c r="BA230" s="1"/>
+      <c r="BB230" s="1"/>
+      <c r="BC230" s="1"/>
+      <c r="BD230" s="1"/>
+      <c r="BE230" s="1"/>
+      <c r="BF230" s="1"/>
+      <c r="BG230" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:L2"/>
